--- a/medicine/Mort/Cimetière_d'Ohlsdorf/Cimetière_d'Ohlsdorf.xlsx
+++ b/medicine/Mort/Cimetière_d'Ohlsdorf/Cimetière_d'Ohlsdorf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Ohlsdorf</t>
+          <t>Cimetière_d'Ohlsdorf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière d'Ohlsdorf (en allemand : Friedhof Ohlsdorf) est un cimetière situé à Hambourg, dans le quartier d'Ohlsdorf.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Ohlsdorf</t>
+          <t>Cimetière_d'Ohlsdorf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière d'Ohlsdorf est inauguré le 1er juillet 1877 sous la dénomination Hauptfriedhof Ohlsdorf, appellation conservée jusqu'en 1991.
 D'une superficie de 391 hectares, c'est le plus grand cimetière-parc du monde. Quelque 235 000 tombes sont réparties sur sa surface. Depuis sa création, plus de 1,4 million de personnes y ont reçu une sépulture. Quelque 4 700 personnes sont inhumées annuellement au cimetière d'Ohlsdorf.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Ohlsdorf</t>
+          <t>Cimetière_d'Ohlsdorf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteurs et actrices
-Anny Ahlers (1907-1933), actrice et chanteuse
+          <t>Acteurs et actrices</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anny Ahlers (1907-1933), actrice et chanteuse
 Hans Albers (1891-1960), acteur de films muets et sonores
 Magda Bäumken (1890-1959), actrice
 Edgar Bessen (1933-2012), acteur
@@ -576,9 +595,43 @@
 Carolin Wosnitza (1987-2011), actrice porno
 Hans Tügel (1894-1984), acteur, réalisateur et scénariste
 Henry Vahl (1897-1977), acteur populaire
-Erich Weiher (1893-1972), acteur
-Administrateurs et artistes de théâtre
-Ida Ehre (1900-1989), actrice et réalisatrice.
+Erich Weiher (1893-1972), acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Administrateurs et artistes de théâtre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ida Ehre (1900-1989), actrice et réalisatrice.
 Hans Boyfriend (1892-1953), acteur, réalisateur et pionnier de la radio
 Gerda Gmelin (1919-2003), actrice, metteur en scène et directeur artistique
 Gustaf Gründgens (1899-1963 à Manille), acteur, metteur en scène et directeur de théâtre.
@@ -587,15 +640,83 @@
 Richard Ohnsorg (1876-1947), metteur en scène et acteur
 John Olden (1918-1965), réalisateur de télévision, producteur de films
 S. O. Wagner (1902-1975), acteur, réalisateur et scénariste
-Gernot Weitzl (1925-2004), réalisateur et diffuseur allemand
-Scientifiques
-James Franck (1882-1964), physicien et lauréat du prix Nobel ;
+Gernot Weitzl (1925-2004), réalisateur et diffuseur allemand</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Scientifiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>James Franck (1882-1964), physicien et lauréat du prix Nobel ;
 Gustav Hertz (1887-1975), physicien et lauréat du prix Nobel, neveu de Heinrich Hertz.
 Heinrich Hertz (1857-1892), physicien ;
 Pascual Jordan (1902-1980), physicien ;
-Heidrun E. K. Hartmann (1942-2016), botaniste spécialiste des succulentes.
-Musiciens
-Max Alvary (1856-1898), artiste lyrique (chanteur d'opéra), ténor
+Heidrun E. K. Hartmann (1942-2016), botaniste spécialiste des succulentes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Musiciens</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Max Alvary (1856-1898), artiste lyrique (chanteur d'opéra), ténor
 Peter Anders (1908-1954), ténor (au Staatsoper de Hambourg, Berlin, Dresde, Munich, Vienne)
 Ralf Arnie (1924-2003), compositeur, parolier et éditeur de musique
 Hans Guido von Bülow (1830-1894), pianiste, chef d'orchestre et compositeur
@@ -603,48 +724,320 @@
 Alfred Hause (1920-2005), violoniste, chef d'orchestre et directeur musical
 Carlo Karges (1951-2002), musicien, parolier de la chanson 99 Luftballons
 James Last (1929-2015), musicien
-Helmut Zacharias (1920-2002 à Ascona, Suisse), violoniste virtuose
-Ingénieurs, architectes et urbanistes
-Alfred Brandt (1846-1899), ingénieur, inventeur de la perceuse hydraulique, constructeur du tunnel du Simplon.
+Helmut Zacharias (1920-2002 à Ascona, Suisse), violoniste virtuose</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ingénieurs, architectes et urbanistes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Alfred Brandt (1846-1899), ingénieur, inventeur de la perceuse hydraulique, constructeur du tunnel du Simplon.
 Wilhelm Cordes (1840-1917), premier directeur du cimetière Ohlsdorf
 John Dalmann (1823-1875), constructeur du Tidehafens
-Fritz Schumacher (1869-1947), architecte et urbaniste, architecte en chef à Hambourg
-Peintres et sculpteurs
-Ottomar Anton (1895-1976), peintre et affichiste
+Fritz Schumacher (1869-1947), architecte et urbaniste, architecte en chef à Hambourg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Peintres et sculpteurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ottomar Anton (1895-1976), peintre et affichiste
 Ernst Hanssen (1907-1989), sculpteur
 Ivo Hauptmann (1886-1973), peintre
 Christopher Rave (1881-1933), peintre, explorateur polaire et professeur
 Anita Rée (1885-1933), peintre
 Philipp Otto Runge (1777-1810), peintre du romantisme allemand
-Valentin Ruths (1825-1905), peintre paysagiste
-Personnalités politiques
-Max Albrecht (1851-1925), industriel et homme politique
+Valentin Ruths (1825-1905), peintre paysagiste</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Personnalités politiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Max Albrecht (1851-1925), industriel et homme politique
 Karl Meitmann (1891-1971), homme politique, député au Bundestag
 Werner von Melle (1853-1937), sénateur et maire, cofondateur de l'université
 Richard Perner (1876-1955), homme politique, député du Reichstag
 Helmut Schmidt (1918-2015), sénateur du département de police de Hambourg, ministre fédéral de la défense et de l'économie et des finances, cinquième chancelier de la République fédérale d'Allemagne de 1974 à 1982, après 1983 corédacteur du der Zeit
-Herbert Weichmann (1896-1983), premier maire de Hambourg, de 1965 à 1971.
-Pédagogues et enseignants
-Johannes Classen (1805-1891), directeur du lycée Johanneum de Hambourg et philologue.
-Loki Schmidt (1919-2010), professeur, écologiste, épouse de Helmut Schmidt.
-Écrivains
-Hertha Borchert (1895-1985), écrivain
+Herbert Weichmann (1896-1983), premier maire de Hambourg, de 1965 à 1971.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pédagogues et enseignants</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Johannes Classen (1805-1891), directeur du lycée Johanneum de Hambourg et philologue.
+Loki Schmidt (1919-2010), professeur, écologiste, épouse de Helmut Schmidt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Écrivains</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Hertha Borchert (1895-1985), écrivain
 Wolfgang Borchert (1921-1947), écrivain
 Gustav Falke (1853-1916), écrivain
 Lev Natanovich Lunts, (1901-1924), écrivain et dramaturge russe
-Kurt Wilhelm Marek (1915-1972), écrivain
-Chefs d'entreprise
-Albert Ballin (1857-1918), homme d'affaires, directeur de compagnie maritime
+Kurt Wilhelm Marek (1915-1972), écrivain</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Chefs d'entreprise</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Albert Ballin (1857-1918), homme d'affaires, directeur de compagnie maritime
 Hermann Blohm (1848-1930), fondateur du chantier naval Blohm &amp; Voss
 John Jahr senior (1900-1991), éditeur
-Ernst Voss (1842-1920), fondateur du chantier naval Blohm &amp; Voss
-Sportifs
-Stefan Hentschel (1948-2006), boxeur
+Ernst Voss (1842-1920), fondateur du chantier naval Blohm &amp; Voss</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sportifs</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Stefan Hentschel (1948-2006), boxeur
 Dieter Seeler (1931-1979), joueur de football
 Erwin Seeler (1910-1997). footballeur
-Fritz Sdunek (1947-2014), entraîneur de boxe
-Autres
-Rosemarie Clausen (1907-1990), photographe
+Fritz Sdunek (1947-2014), entraîneur de boxe</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Rosemarie Clausen (1907-1990), photographe
 Carsten Diercks (1921-2009), réalisateur de documentaires
 Victor Franke (1866-1936), officier colonial, entre autres au Sud-Ouest africain allemand
 Carl Hagenbeck (1844-1913), fondateur du parc animalier Tierpark Hagenbeck
@@ -662,62 +1055,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_d%27Ohlsdorf</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Ohlsdorf</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Tombes collectives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>victimes du naufrage du Primus (de) (1902) : 78 victimes
 victimes des inondations de 1962</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_d%27Ohlsdorf</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Ohlsdorf</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cimetière_d'Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_d%27Ohlsdorf</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Garten der Frauen</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Le jardin des femmes (en allemand : Garten der Frauen (de)) abrite une centaine de tombes, de pierres tombales et de pierres commémoratives de personnalités féminines. On commémore des femmes d'importance dont les pierres de mémoire sont sauvées de la destruction ou déjà détruites[pas clair], et des femmes qui y sont enterrées. Parmi elles : 
 France Bloch-Sérazin
